--- a/Curso Básico e Intermediário/Capitulo 7 - Exercícios Efetuados/Pagamento Anual.xlsx
+++ b/Curso Básico e Intermediário/Capitulo 7 - Exercícios Efetuados/Pagamento Anual.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Filitto\Documents\MaterialCursoExcel\Curso Básico e Intermediário\Capitulo 7 - Exercícios Efetuados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D78A00-002D-4C18-A00C-3373CBB87461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70D6E68B-B1EB-40EF-B976-7EC68FDB2B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha de Pagamento" sheetId="1" r:id="rId1"/>
+    <sheet name="Grafico Linha 3D" sheetId="4" r:id="rId1"/>
+    <sheet name="Gráfico Coluna" sheetId="5" r:id="rId2"/>
+    <sheet name="Gráfico Pizza 3D" sheetId="6" r:id="rId3"/>
+    <sheet name="Folha de Pagamento" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Folha de Pagamento'!$A$1:$N$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Folha de Pagamento'!$A:$A,'Folha de Pagamento'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Folha de Pagamento'!$A$1:$N$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Folha de Pagamento'!$A:$A,'Folha de Pagamento'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="singleAccounting"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -183,8 +178,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,10 +219,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -237,13 +233,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Pagamentos</a:t>
+              <a:t>Folha de pagamento</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> efetuados</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -260,10 +251,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -276,11 +268,48 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -297,28 +326,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Folha de Pagamento'!$B$1:$F$1</c:f>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JAN</c:v>
                 </c:pt>
@@ -333,16 +354,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Folha de Pagamento'!$B$2:$F$2</c:f>
+              <c:f>'Folha de Pagamento'!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2250</c:v>
                 </c:pt>
@@ -357,13 +399,35 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3476.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3476.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D755-4999-B60D-52AE42425C4F}"/>
+              <c16:uniqueId val="{00000000-FFAC-4F9E-8BEC-96C217DF28D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -382,28 +446,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Folha de Pagamento'!$B$1:$F$1</c:f>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JAN</c:v>
                 </c:pt>
@@ -418,16 +474,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Folha de Pagamento'!$B$3:$F$3</c:f>
+              <c:f>'Folha de Pagamento'!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1830</c:v>
                 </c:pt>
@@ -442,13 +519,35 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2827.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2827.3500000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D755-4999-B60D-52AE42425C4F}"/>
+              <c16:uniqueId val="{00000001-FFAC-4F9E-8BEC-96C217DF28D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -467,28 +566,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Folha de Pagamento'!$B$1:$F$1</c:f>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JAN</c:v>
                 </c:pt>
@@ -503,16 +594,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Folha de Pagamento'!$B$4:$F$4</c:f>
+              <c:f>'Folha de Pagamento'!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1900</c:v>
                 </c:pt>
@@ -527,13 +639,35 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2935.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2935.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D755-4999-B60D-52AE42425C4F}"/>
+              <c16:uniqueId val="{00000002-FFAC-4F9E-8BEC-96C217DF28D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -552,28 +686,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Folha de Pagamento'!$B$1:$F$1</c:f>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JAN</c:v>
                 </c:pt>
@@ -588,16 +714,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Folha de Pagamento'!$B$5:$F$5</c:f>
+              <c:f>'Folha de Pagamento'!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2100</c:v>
                 </c:pt>
@@ -612,13 +759,763 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3244.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3244.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D755-4999-B60D-52AE42425C4F}"/>
+              <c16:uniqueId val="{00000003-FFAC-4F9E-8BEC-96C217DF28D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>João</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1802.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1802.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1802.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1802.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1802.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1802.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2703.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2703.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FFAC-4F9E-8BEC-96C217DF28D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gabriel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1617.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1617.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1617.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1617.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1617.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1617.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2425.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2425.6499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FFAC-4F9E-8BEC-96C217DF28D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vínicius</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2085.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2085.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FFAC-4F9E-8BEC-96C217DF28D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rogério</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FFAC-4F9E-8BEC-96C217DF28D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mathues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2935.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2935.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FFAC-4F9E-8BEC-96C217DF28D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guilherme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3059.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3059.1000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FFAC-4F9E-8BEC-96C217DF28D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,44 +1527,83 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
-        <c:axId val="669703568"/>
-        <c:axId val="718832256"/>
-      </c:barChart>
+        <c:axId val="86712991"/>
+        <c:axId val="1961070431"/>
+        <c:axId val="116753215"/>
+      </c:line3DChart>
       <c:catAx>
-        <c:axId val="669703568"/>
+        <c:axId val="86712991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961070431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1961070431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -685,8 +1621,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -697,15 +1634,1955 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718832256"/>
+        <c:crossAx val="86712991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="116753215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961070431"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Folha de Pagamento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nilo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2317.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3476.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3476.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Danilo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1884.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2827.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2827.3500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vínicius</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1390.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2085.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2085.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rogério</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mathues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2935.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2935.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guilherme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$B$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2039.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3059.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3059.1000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="119983167"/>
+        <c:axId val="2015467263"/>
+        <c:axId val="0"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Emanuel</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent3">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>JAN</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>FEV</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MAR</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ABR</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>MAI</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>JUN</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>JUL</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>AGO</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>SET</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>OUT</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>NOV</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>DEZ</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$4:$M$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1900</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1957</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1957</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1957</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1957</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1957</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1957</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2935.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2935.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>José</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent4">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>JAN</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>FEV</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MAR</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ABR</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>MAI</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>JUN</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>JUL</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>AGO</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>SET</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>OUT</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>NOV</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>DEZ</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$5:$M$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2163</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2163</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2163</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2163</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2163</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2163</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3244.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3244.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>João</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent5">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent5">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>JAN</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>FEV</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MAR</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ABR</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>MAI</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>JUN</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>JUL</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>AGO</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>SET</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>OUT</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>NOV</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>DEZ</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$6:$M$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1750</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1750</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1750</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1750</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1802.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1802.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1802.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1802.5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1802.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1802.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2703.75</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2703.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Gabriel</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent6">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent6">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$1:$M$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>JAN</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>FEV</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>MAR</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>ABR</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>MAI</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>JUN</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>JUL</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>AGO</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>SET</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>OUT</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>NOV</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>DEZ</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Folha de Pagamento'!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1570</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1570</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1570</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1570</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1617.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1617.1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1617.1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1617.1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1617.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1617.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2425.6499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2425.6499999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-A6CF-4B44-AE2B-2D1CCFBE2580}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="119983167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015467263"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="718832256"/>
+        <c:axId val="2015467263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,23 +3591,12 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -755,7 +3621,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -766,7 +3632,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669703568"/>
+        <c:crossAx val="119983167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -779,7 +3645,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -796,7 +3662,7 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -820,17 +3686,661 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10866110599437015"/>
+          <c:y val="0"/>
+          <c:w val="0.89133889400562982"/>
+          <c:h val="0.88788351456067993"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-442A-470E-9F0E-10F0914ECCC3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Folha de Pagamento'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Nilo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Danilo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Emanuel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>José</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>João</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gabriel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vínicius</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rogério</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mathues</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Guilherme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Folha de Pagamento'!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29857.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24284.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23222.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20833.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17914.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26274.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-442A-470E-9F0E-10F0914ECCC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -847,11 +4357,6 @@
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -895,47 +4400,114 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -944,14 +4516,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -961,18 +4557,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -980,131 +4581,71 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1120,9 +4661,1238 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -1134,33 +5904,67 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1170,188 +5974,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1363,11 +5988,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1376,14 +6002,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1393,8 +6017,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1408,17 +6033,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1427,10 +6050,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1444,31 +6073,56 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EAADEE90-5C5F-4E66-AB5E-88328876E487}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E172FE2D-5EDD-497A-8D4F-7F409AEE862D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C76FAC92-C4CC-4DA7-B434-C63A75989230}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9636125" cy="6000750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC049E2F-69CC-441D-9270-E69F35F22537}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A4F33A-772C-43C5-84BC-B6FFC0D4C76F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1481,7 +6135,73 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9636125" cy="6000750"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C50566B-6E5E-4C14-9525-16A5194A544E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9636125" cy="6000750"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D13CB8-54C8-43F4-82FE-B78A44561F23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1750,9 +6470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" activeCellId="1" sqref="A1:A11 N1:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,7 +6524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +6566,7 @@
       <c r="M2" s="3">
         <v>3476.25</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <f>SUM(B2:M2)</f>
         <v>29857.5</v>
       </c>
@@ -2275,7 +6995,7 @@
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="6"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2290,6 +7010,5 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="7" max="10" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>